--- a/Docs/LA Appt Tracker.xlsx
+++ b/Docs/LA Appt Tracker.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles.Burks\MyGit\La_tracker\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B88EA48-B0C6-4433-8D8E-F6A10A7D72A3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="72" windowWidth="16608" windowHeight="9432"/>
+    <workbookView xWindow="0" yWindow="72" windowWidth="16608" windowHeight="9432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -68,7 +76,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,7 +134,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -338,9 +352,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -352,40 +363,31 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -397,6 +399,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -433,33 +471,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -805,179 +817,179 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:N39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="N8" sqref="N8:N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="40"/>
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="12"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="42"/>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="46"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="18"/>
     </row>
     <row r="4" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="23" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="21"/>
     </row>
     <row r="5" spans="1:14" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="23" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="26" t="s">
+      <c r="G6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="8" t="s">
+      <c r="J6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="8" t="s">
+      <c r="L6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="26" t="s">
+      <c r="M6" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="27"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="9" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="9" t="s">
+      <c r="E7" s="35"/>
+      <c r="F7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="35"/>
+      <c r="H7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="35"/>
+      <c r="J7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="9" t="s">
+      <c r="K7" s="35"/>
+      <c r="L7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="M7" s="27"/>
-      <c r="N7" s="9" t="s">
+      <c r="M7" s="35"/>
+      <c r="N7" s="8" t="s">
         <v>5</v>
       </c>
     </row>
@@ -986,42 +998,49 @@
         <v>1</v>
       </c>
       <c r="B8" s="1">
+        <f>Sheet2!A1</f>
         <v>0</v>
       </c>
       <c r="C8" s="3">
         <v>27</v>
       </c>
       <c r="D8" s="1">
+        <f>Sheet2!B1</f>
         <v>0</v>
       </c>
       <c r="E8" s="3">
         <v>53</v>
       </c>
       <c r="F8" s="1">
+        <f>Sheet2!C1</f>
         <v>0</v>
       </c>
       <c r="G8" s="3">
         <v>79</v>
       </c>
       <c r="H8" s="1">
+        <f>Sheet2!D1</f>
         <v>0</v>
       </c>
       <c r="I8" s="3">
         <v>105</v>
       </c>
       <c r="J8" s="1">
+        <f>Sheet2!E1</f>
         <v>0</v>
       </c>
       <c r="K8" s="3">
         <v>131</v>
       </c>
       <c r="L8" s="1">
+        <f>Sheet2!F1</f>
         <v>0</v>
       </c>
       <c r="M8" s="3">
         <v>157</v>
       </c>
       <c r="N8" s="2">
+        <f>Sheet2!G1</f>
         <v>0</v>
       </c>
     </row>
@@ -1030,42 +1049,49 @@
         <v>2</v>
       </c>
       <c r="B9" s="1">
+        <f>Sheet2!A2</f>
         <v>0</v>
       </c>
       <c r="C9" s="3">
         <v>28</v>
       </c>
       <c r="D9" s="1">
+        <f>Sheet2!B2</f>
         <v>0</v>
       </c>
       <c r="E9" s="3">
         <v>54</v>
       </c>
       <c r="F9" s="1">
+        <f>Sheet2!C2</f>
         <v>0</v>
       </c>
       <c r="G9" s="3">
         <v>80</v>
       </c>
       <c r="H9" s="1">
+        <f>Sheet2!D2</f>
         <v>0</v>
       </c>
       <c r="I9" s="3">
         <v>106</v>
       </c>
       <c r="J9" s="1">
+        <f>Sheet2!E2</f>
         <v>0</v>
       </c>
       <c r="K9" s="3">
         <v>132</v>
       </c>
       <c r="L9" s="1">
+        <f>Sheet2!F2</f>
         <v>0</v>
       </c>
       <c r="M9" s="3">
         <v>158</v>
       </c>
       <c r="N9" s="2">
+        <f>Sheet2!G2</f>
         <v>0</v>
       </c>
     </row>
@@ -1074,42 +1100,49 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
+        <f>Sheet2!A3</f>
         <v>0</v>
       </c>
       <c r="C10" s="3">
         <v>29</v>
       </c>
       <c r="D10" s="1">
+        <f>Sheet2!B3</f>
         <v>0</v>
       </c>
       <c r="E10" s="3">
         <v>55</v>
       </c>
       <c r="F10" s="1">
+        <f>Sheet2!C3</f>
         <v>0</v>
       </c>
       <c r="G10" s="3">
         <v>81</v>
       </c>
       <c r="H10" s="1">
+        <f>Sheet2!D3</f>
         <v>0</v>
       </c>
       <c r="I10" s="3">
         <v>107</v>
       </c>
       <c r="J10" s="1">
+        <f>Sheet2!E3</f>
         <v>0</v>
       </c>
       <c r="K10" s="3">
         <v>133</v>
       </c>
       <c r="L10" s="1">
+        <f>Sheet2!F3</f>
         <v>0</v>
       </c>
       <c r="M10" s="3">
         <v>159</v>
       </c>
       <c r="N10" s="2">
+        <f>Sheet2!G3</f>
         <v>0</v>
       </c>
     </row>
@@ -1118,42 +1151,49 @@
         <v>4</v>
       </c>
       <c r="B11" s="1">
+        <f>Sheet2!A4</f>
         <v>0</v>
       </c>
       <c r="C11" s="3">
         <v>30</v>
       </c>
       <c r="D11" s="1">
+        <f>Sheet2!B4</f>
         <v>0</v>
       </c>
       <c r="E11" s="3">
         <v>56</v>
       </c>
       <c r="F11" s="1">
+        <f>Sheet2!C4</f>
         <v>0</v>
       </c>
       <c r="G11" s="3">
         <v>82</v>
       </c>
       <c r="H11" s="1">
+        <f>Sheet2!D4</f>
         <v>0</v>
       </c>
       <c r="I11" s="3">
         <v>108</v>
       </c>
       <c r="J11" s="1">
+        <f>Sheet2!E4</f>
         <v>0</v>
       </c>
       <c r="K11" s="3">
         <v>134</v>
       </c>
       <c r="L11" s="1">
+        <f>Sheet2!F4</f>
         <v>0</v>
       </c>
       <c r="M11" s="3">
         <v>160</v>
       </c>
       <c r="N11" s="2">
+        <f>Sheet2!G4</f>
         <v>0</v>
       </c>
     </row>
@@ -1162,42 +1202,49 @@
         <v>5</v>
       </c>
       <c r="B12" s="1">
+        <f>Sheet2!A5</f>
         <v>0</v>
       </c>
       <c r="C12" s="3">
         <v>31</v>
       </c>
       <c r="D12" s="1">
+        <f>Sheet2!B5</f>
         <v>0</v>
       </c>
       <c r="E12" s="3">
         <v>57</v>
       </c>
       <c r="F12" s="1">
+        <f>Sheet2!C5</f>
         <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>83</v>
       </c>
       <c r="H12" s="1">
+        <f>Sheet2!D5</f>
         <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>109</v>
       </c>
       <c r="J12" s="1">
+        <f>Sheet2!E5</f>
         <v>0</v>
       </c>
       <c r="K12" s="3">
         <v>135</v>
       </c>
       <c r="L12" s="1">
+        <f>Sheet2!F5</f>
         <v>0</v>
       </c>
       <c r="M12" s="3">
         <v>161</v>
       </c>
       <c r="N12" s="2">
+        <f>Sheet2!G5</f>
         <v>0</v>
       </c>
     </row>
@@ -1206,42 +1253,49 @@
         <v>6</v>
       </c>
       <c r="B13" s="1">
+        <f>Sheet2!A6</f>
         <v>0</v>
       </c>
       <c r="C13" s="3">
         <v>32</v>
       </c>
       <c r="D13" s="1">
+        <f>Sheet2!B6</f>
         <v>0</v>
       </c>
       <c r="E13" s="3">
         <v>58</v>
       </c>
       <c r="F13" s="1">
+        <f>Sheet2!C6</f>
         <v>0</v>
       </c>
       <c r="G13" s="3">
         <v>84</v>
       </c>
       <c r="H13" s="1">
+        <f>Sheet2!D6</f>
         <v>0</v>
       </c>
       <c r="I13" s="3">
         <v>110</v>
       </c>
       <c r="J13" s="1">
+        <f>Sheet2!E6</f>
         <v>0</v>
       </c>
       <c r="K13" s="3">
         <v>136</v>
       </c>
       <c r="L13" s="1">
+        <f>Sheet2!F6</f>
         <v>0</v>
       </c>
       <c r="M13" s="3">
         <v>162</v>
       </c>
       <c r="N13" s="2">
+        <f>Sheet2!G6</f>
         <v>0</v>
       </c>
     </row>
@@ -1250,42 +1304,49 @@
         <v>7</v>
       </c>
       <c r="B14" s="1">
+        <f>Sheet2!A7</f>
         <v>0</v>
       </c>
       <c r="C14" s="3">
         <v>33</v>
       </c>
       <c r="D14" s="1">
+        <f>Sheet2!B7</f>
         <v>0</v>
       </c>
       <c r="E14" s="3">
         <v>59</v>
       </c>
       <c r="F14" s="1">
+        <f>Sheet2!C7</f>
         <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>85</v>
       </c>
       <c r="H14" s="1">
+        <f>Sheet2!D7</f>
         <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>111</v>
       </c>
       <c r="J14" s="1">
+        <f>Sheet2!E7</f>
         <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>137</v>
       </c>
       <c r="L14" s="1">
+        <f>Sheet2!F7</f>
         <v>0</v>
       </c>
       <c r="M14" s="3">
         <v>163</v>
       </c>
       <c r="N14" s="2">
+        <f>Sheet2!G7</f>
         <v>0</v>
       </c>
     </row>
@@ -1294,42 +1355,49 @@
         <v>8</v>
       </c>
       <c r="B15" s="1">
+        <f>Sheet2!A8</f>
         <v>0</v>
       </c>
       <c r="C15" s="3">
         <v>34</v>
       </c>
       <c r="D15" s="1">
+        <f>Sheet2!B8</f>
         <v>0</v>
       </c>
       <c r="E15" s="3">
         <v>60</v>
       </c>
       <c r="F15" s="1">
+        <f>Sheet2!C8</f>
         <v>0</v>
       </c>
       <c r="G15" s="3">
         <v>86</v>
       </c>
       <c r="H15" s="1">
+        <f>Sheet2!D8</f>
         <v>0</v>
       </c>
       <c r="I15" s="3">
         <v>112</v>
       </c>
       <c r="J15" s="1">
+        <f>Sheet2!E8</f>
         <v>0</v>
       </c>
       <c r="K15" s="3">
         <v>138</v>
       </c>
       <c r="L15" s="1">
+        <f>Sheet2!F8</f>
         <v>0</v>
       </c>
       <c r="M15" s="3">
         <v>164</v>
       </c>
       <c r="N15" s="2">
+        <f>Sheet2!G8</f>
         <v>0</v>
       </c>
     </row>
@@ -1338,42 +1406,49 @@
         <v>9</v>
       </c>
       <c r="B16" s="1">
+        <f>Sheet2!A9</f>
         <v>0</v>
       </c>
       <c r="C16" s="3">
         <v>35</v>
       </c>
       <c r="D16" s="1">
+        <f>Sheet2!B9</f>
         <v>0</v>
       </c>
       <c r="E16" s="3">
         <v>61</v>
       </c>
       <c r="F16" s="1">
+        <f>Sheet2!C9</f>
         <v>0</v>
       </c>
       <c r="G16" s="3">
         <v>87</v>
       </c>
       <c r="H16" s="1">
+        <f>Sheet2!D9</f>
         <v>0</v>
       </c>
       <c r="I16" s="3">
         <v>113</v>
       </c>
       <c r="J16" s="1">
+        <f>Sheet2!E9</f>
         <v>0</v>
       </c>
       <c r="K16" s="3">
         <v>139</v>
       </c>
       <c r="L16" s="1">
+        <f>Sheet2!F9</f>
         <v>0</v>
       </c>
       <c r="M16" s="3">
         <v>165</v>
       </c>
       <c r="N16" s="2">
+        <f>Sheet2!G9</f>
         <v>0</v>
       </c>
     </row>
@@ -1382,42 +1457,49 @@
         <v>10</v>
       </c>
       <c r="B17" s="1">
+        <f>Sheet2!A10</f>
         <v>0</v>
       </c>
       <c r="C17" s="3">
         <v>36</v>
       </c>
       <c r="D17" s="1">
+        <f>Sheet2!B10</f>
         <v>0</v>
       </c>
       <c r="E17" s="3">
         <v>62</v>
       </c>
       <c r="F17" s="1">
+        <f>Sheet2!C10</f>
         <v>0</v>
       </c>
       <c r="G17" s="3">
         <v>88</v>
       </c>
       <c r="H17" s="1">
+        <f>Sheet2!D10</f>
         <v>0</v>
       </c>
       <c r="I17" s="3">
         <v>114</v>
       </c>
       <c r="J17" s="1">
+        <f>Sheet2!E10</f>
         <v>0</v>
       </c>
       <c r="K17" s="3">
         <v>140</v>
       </c>
       <c r="L17" s="1">
+        <f>Sheet2!F10</f>
         <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>166</v>
       </c>
       <c r="N17" s="2">
+        <f>Sheet2!G10</f>
         <v>0</v>
       </c>
     </row>
@@ -1426,42 +1508,49 @@
         <v>11</v>
       </c>
       <c r="B18" s="1">
+        <f>Sheet2!A11</f>
         <v>0</v>
       </c>
       <c r="C18" s="3">
         <v>37</v>
       </c>
       <c r="D18" s="1">
+        <f>Sheet2!B11</f>
         <v>0</v>
       </c>
       <c r="E18" s="3">
         <v>63</v>
       </c>
       <c r="F18" s="1">
+        <f>Sheet2!C11</f>
         <v>0</v>
       </c>
       <c r="G18" s="3">
         <v>89</v>
       </c>
       <c r="H18" s="1">
+        <f>Sheet2!D11</f>
         <v>0</v>
       </c>
       <c r="I18" s="3">
         <v>115</v>
       </c>
       <c r="J18" s="1">
+        <f>Sheet2!E11</f>
         <v>0</v>
       </c>
       <c r="K18" s="3">
         <v>141</v>
       </c>
       <c r="L18" s="1">
+        <f>Sheet2!F11</f>
         <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>167</v>
       </c>
       <c r="N18" s="2">
+        <f>Sheet2!G11</f>
         <v>0</v>
       </c>
     </row>
@@ -1470,42 +1559,49 @@
         <v>12</v>
       </c>
       <c r="B19" s="1">
+        <f>Sheet2!A12</f>
         <v>0</v>
       </c>
       <c r="C19" s="3">
         <v>38</v>
       </c>
       <c r="D19" s="1">
+        <f>Sheet2!B12</f>
         <v>0</v>
       </c>
       <c r="E19" s="3">
         <v>64</v>
       </c>
       <c r="F19" s="1">
+        <f>Sheet2!C12</f>
         <v>0</v>
       </c>
       <c r="G19" s="3">
         <v>90</v>
       </c>
       <c r="H19" s="1">
+        <f>Sheet2!D12</f>
         <v>0</v>
       </c>
       <c r="I19" s="3">
         <v>116</v>
       </c>
       <c r="J19" s="1">
+        <f>Sheet2!E12</f>
         <v>0</v>
       </c>
       <c r="K19" s="3">
         <v>142</v>
       </c>
       <c r="L19" s="1">
+        <f>Sheet2!F12</f>
         <v>0</v>
       </c>
       <c r="M19" s="3">
         <v>168</v>
       </c>
       <c r="N19" s="2">
+        <f>Sheet2!G12</f>
         <v>0</v>
       </c>
     </row>
@@ -1514,42 +1610,49 @@
         <v>13</v>
       </c>
       <c r="B20" s="1">
+        <f>Sheet2!A13</f>
         <v>0</v>
       </c>
       <c r="C20" s="3">
         <v>39</v>
       </c>
       <c r="D20" s="1">
+        <f>Sheet2!B13</f>
         <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>65</v>
       </c>
       <c r="F20" s="1">
+        <f>Sheet2!C13</f>
         <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>91</v>
       </c>
       <c r="H20" s="1">
+        <f>Sheet2!D13</f>
         <v>0</v>
       </c>
       <c r="I20" s="3">
         <v>117</v>
       </c>
       <c r="J20" s="1">
+        <f>Sheet2!E13</f>
         <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>143</v>
       </c>
       <c r="L20" s="1">
+        <f>Sheet2!F13</f>
         <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>169</v>
       </c>
       <c r="N20" s="2">
+        <f>Sheet2!G13</f>
         <v>0</v>
       </c>
     </row>
@@ -1558,42 +1661,49 @@
         <v>14</v>
       </c>
       <c r="B21" s="1">
+        <f>Sheet2!A14</f>
         <v>0</v>
       </c>
       <c r="C21" s="3">
         <v>40</v>
       </c>
       <c r="D21" s="1">
+        <f>Sheet2!B14</f>
         <v>0</v>
       </c>
       <c r="E21" s="3">
         <v>66</v>
       </c>
       <c r="F21" s="1">
+        <f>Sheet2!C14</f>
         <v>0</v>
       </c>
       <c r="G21" s="3">
         <v>92</v>
       </c>
       <c r="H21" s="1">
+        <f>Sheet2!D14</f>
         <v>0</v>
       </c>
       <c r="I21" s="3">
         <v>118</v>
       </c>
       <c r="J21" s="1">
+        <f>Sheet2!E14</f>
         <v>0</v>
       </c>
       <c r="K21" s="3">
         <v>144</v>
       </c>
       <c r="L21" s="1">
+        <f>Sheet2!F14</f>
         <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>170</v>
       </c>
       <c r="N21" s="2">
+        <f>Sheet2!G14</f>
         <v>0</v>
       </c>
     </row>
@@ -1602,42 +1712,49 @@
         <v>15</v>
       </c>
       <c r="B22" s="1">
+        <f>Sheet2!A15</f>
         <v>0</v>
       </c>
       <c r="C22" s="3">
         <v>41</v>
       </c>
       <c r="D22" s="1">
+        <f>Sheet2!B15</f>
         <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>67</v>
       </c>
       <c r="F22" s="1">
+        <f>Sheet2!C15</f>
         <v>0</v>
       </c>
       <c r="G22" s="3">
         <v>93</v>
       </c>
       <c r="H22" s="1">
+        <f>Sheet2!D15</f>
         <v>0</v>
       </c>
       <c r="I22" s="3">
         <v>119</v>
       </c>
       <c r="J22" s="1">
+        <f>Sheet2!E15</f>
         <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>145</v>
       </c>
       <c r="L22" s="1">
+        <f>Sheet2!F15</f>
         <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>171</v>
       </c>
       <c r="N22" s="2">
+        <f>Sheet2!G15</f>
         <v>0</v>
       </c>
     </row>
@@ -1646,42 +1763,49 @@
         <v>16</v>
       </c>
       <c r="B23" s="1">
+        <f>Sheet2!A16</f>
         <v>0</v>
       </c>
       <c r="C23" s="3">
         <v>42</v>
       </c>
       <c r="D23" s="1">
+        <f>Sheet2!B16</f>
         <v>0</v>
       </c>
       <c r="E23" s="3">
         <v>68</v>
       </c>
       <c r="F23" s="1">
+        <f>Sheet2!C16</f>
         <v>0</v>
       </c>
       <c r="G23" s="3">
         <v>94</v>
       </c>
       <c r="H23" s="1">
+        <f>Sheet2!D16</f>
         <v>0</v>
       </c>
       <c r="I23" s="3">
         <v>120</v>
       </c>
       <c r="J23" s="1">
+        <f>Sheet2!E16</f>
         <v>0</v>
       </c>
       <c r="K23" s="3">
         <v>146</v>
       </c>
       <c r="L23" s="1">
+        <f>Sheet2!F16</f>
         <v>0</v>
       </c>
       <c r="M23" s="3">
         <v>172</v>
       </c>
       <c r="N23" s="2">
+        <f>Sheet2!G16</f>
         <v>0</v>
       </c>
     </row>
@@ -1690,42 +1814,49 @@
         <v>17</v>
       </c>
       <c r="B24" s="1">
+        <f>Sheet2!A17</f>
         <v>0</v>
       </c>
       <c r="C24" s="3">
         <v>43</v>
       </c>
       <c r="D24" s="1">
+        <f>Sheet2!B17</f>
         <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>69</v>
       </c>
       <c r="F24" s="1">
+        <f>Sheet2!C17</f>
         <v>0</v>
       </c>
       <c r="G24" s="3">
         <v>95</v>
       </c>
       <c r="H24" s="1">
+        <f>Sheet2!D17</f>
         <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>121</v>
       </c>
       <c r="J24" s="1">
+        <f>Sheet2!E17</f>
         <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>147</v>
       </c>
       <c r="L24" s="1">
+        <f>Sheet2!F17</f>
         <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>173</v>
       </c>
       <c r="N24" s="2">
+        <f>Sheet2!G17</f>
         <v>0</v>
       </c>
     </row>
@@ -1734,42 +1865,49 @@
         <v>18</v>
       </c>
       <c r="B25" s="1">
+        <f>Sheet2!A18</f>
         <v>0</v>
       </c>
       <c r="C25" s="3">
         <v>44</v>
       </c>
       <c r="D25" s="1">
+        <f>Sheet2!B18</f>
         <v>0</v>
       </c>
       <c r="E25" s="3">
         <v>70</v>
       </c>
       <c r="F25" s="1">
+        <f>Sheet2!C18</f>
         <v>0</v>
       </c>
       <c r="G25" s="3">
         <v>96</v>
       </c>
       <c r="H25" s="1">
+        <f>Sheet2!D18</f>
         <v>0</v>
       </c>
       <c r="I25" s="3">
         <v>122</v>
       </c>
       <c r="J25" s="1">
+        <f>Sheet2!E18</f>
         <v>0</v>
       </c>
       <c r="K25" s="3">
         <v>148</v>
       </c>
       <c r="L25" s="1">
+        <f>Sheet2!F18</f>
         <v>0</v>
       </c>
       <c r="M25" s="3">
         <v>174</v>
       </c>
       <c r="N25" s="2">
+        <f>Sheet2!G18</f>
         <v>0</v>
       </c>
     </row>
@@ -1778,42 +1916,49 @@
         <v>19</v>
       </c>
       <c r="B26" s="1">
+        <f>Sheet2!A19</f>
         <v>0</v>
       </c>
       <c r="C26" s="3">
         <v>45</v>
       </c>
       <c r="D26" s="1">
+        <f>Sheet2!B19</f>
         <v>0</v>
       </c>
       <c r="E26" s="3">
         <v>71</v>
       </c>
       <c r="F26" s="1">
+        <f>Sheet2!C19</f>
         <v>0</v>
       </c>
       <c r="G26" s="3">
         <v>97</v>
       </c>
       <c r="H26" s="1">
+        <f>Sheet2!D19</f>
         <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>123</v>
       </c>
       <c r="J26" s="1">
+        <f>Sheet2!E19</f>
         <v>0</v>
       </c>
       <c r="K26" s="3">
         <v>149</v>
       </c>
       <c r="L26" s="1">
+        <f>Sheet2!F19</f>
         <v>0</v>
       </c>
       <c r="M26" s="3">
         <v>175</v>
       </c>
       <c r="N26" s="2">
+        <f>Sheet2!G19</f>
         <v>0</v>
       </c>
     </row>
@@ -1822,42 +1967,49 @@
         <v>20</v>
       </c>
       <c r="B27" s="1">
+        <f>Sheet2!A20</f>
         <v>0</v>
       </c>
       <c r="C27" s="3">
         <v>46</v>
       </c>
       <c r="D27" s="1">
+        <f>Sheet2!B20</f>
         <v>0</v>
       </c>
       <c r="E27" s="3">
         <v>72</v>
       </c>
       <c r="F27" s="1">
+        <f>Sheet2!C20</f>
         <v>0</v>
       </c>
       <c r="G27" s="3">
         <v>98</v>
       </c>
       <c r="H27" s="1">
+        <f>Sheet2!D20</f>
         <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>124</v>
       </c>
       <c r="J27" s="1">
+        <f>Sheet2!E20</f>
         <v>0</v>
       </c>
       <c r="K27" s="3">
         <v>150</v>
       </c>
       <c r="L27" s="1">
+        <f>Sheet2!F20</f>
         <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>176</v>
       </c>
       <c r="N27" s="2">
+        <f>Sheet2!G20</f>
         <v>0</v>
       </c>
     </row>
@@ -1866,42 +2018,49 @@
         <v>21</v>
       </c>
       <c r="B28" s="1">
+        <f>Sheet2!A21</f>
         <v>0</v>
       </c>
       <c r="C28" s="3">
         <v>47</v>
       </c>
       <c r="D28" s="1">
+        <f>Sheet2!B21</f>
         <v>0</v>
       </c>
       <c r="E28" s="3">
         <v>73</v>
       </c>
       <c r="F28" s="1">
+        <f>Sheet2!C21</f>
         <v>0</v>
       </c>
       <c r="G28" s="3">
         <v>99</v>
       </c>
       <c r="H28" s="1">
+        <f>Sheet2!D21</f>
         <v>0</v>
       </c>
       <c r="I28" s="3">
         <v>125</v>
       </c>
       <c r="J28" s="1">
+        <f>Sheet2!E21</f>
         <v>0</v>
       </c>
       <c r="K28" s="3">
         <v>151</v>
       </c>
       <c r="L28" s="1">
+        <f>Sheet2!F21</f>
         <v>0</v>
       </c>
       <c r="M28" s="3">
         <v>177</v>
       </c>
       <c r="N28" s="2">
+        <f>Sheet2!G21</f>
         <v>0</v>
       </c>
     </row>
@@ -1910,42 +2069,49 @@
         <v>22</v>
       </c>
       <c r="B29" s="1">
+        <f>Sheet2!A22</f>
         <v>0</v>
       </c>
       <c r="C29" s="3">
         <v>48</v>
       </c>
       <c r="D29" s="1">
+        <f>Sheet2!B22</f>
         <v>0</v>
       </c>
       <c r="E29" s="3">
         <v>74</v>
       </c>
       <c r="F29" s="1">
+        <f>Sheet2!C22</f>
         <v>0</v>
       </c>
       <c r="G29" s="3">
         <v>100</v>
       </c>
       <c r="H29" s="1">
+        <f>Sheet2!D22</f>
         <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>126</v>
       </c>
       <c r="J29" s="1">
+        <f>Sheet2!E22</f>
         <v>0</v>
       </c>
       <c r="K29" s="3">
         <v>152</v>
       </c>
       <c r="L29" s="1">
+        <f>Sheet2!F22</f>
         <v>0</v>
       </c>
       <c r="M29" s="3">
         <v>178</v>
       </c>
       <c r="N29" s="2">
+        <f>Sheet2!G22</f>
         <v>0</v>
       </c>
     </row>
@@ -1954,42 +2120,49 @@
         <v>23</v>
       </c>
       <c r="B30" s="1">
+        <f>Sheet2!A23</f>
         <v>0</v>
       </c>
       <c r="C30" s="3">
         <v>49</v>
       </c>
       <c r="D30" s="1">
+        <f>Sheet2!B23</f>
         <v>0</v>
       </c>
       <c r="E30" s="3">
         <v>75</v>
       </c>
       <c r="F30" s="1">
+        <f>Sheet2!C23</f>
         <v>0</v>
       </c>
       <c r="G30" s="3">
         <v>101</v>
       </c>
       <c r="H30" s="1">
+        <f>Sheet2!D23</f>
         <v>0</v>
       </c>
       <c r="I30" s="3">
         <v>127</v>
       </c>
       <c r="J30" s="1">
+        <f>Sheet2!E23</f>
         <v>0</v>
       </c>
       <c r="K30" s="3">
         <v>153</v>
       </c>
       <c r="L30" s="1">
+        <f>Sheet2!F23</f>
         <v>0</v>
       </c>
       <c r="M30" s="3">
         <v>179</v>
       </c>
       <c r="N30" s="2">
+        <f>Sheet2!G23</f>
         <v>0</v>
       </c>
     </row>
@@ -1998,42 +2171,49 @@
         <v>24</v>
       </c>
       <c r="B31" s="1">
+        <f>Sheet2!A24</f>
         <v>0</v>
       </c>
       <c r="C31" s="3">
         <v>50</v>
       </c>
       <c r="D31" s="1">
+        <f>Sheet2!B24</f>
         <v>0</v>
       </c>
       <c r="E31" s="3">
         <v>76</v>
       </c>
       <c r="F31" s="1">
+        <f>Sheet2!C24</f>
         <v>0</v>
       </c>
       <c r="G31" s="3">
         <v>102</v>
       </c>
       <c r="H31" s="1">
+        <f>Sheet2!D24</f>
         <v>0</v>
       </c>
       <c r="I31" s="3">
         <v>128</v>
       </c>
       <c r="J31" s="1">
+        <f>Sheet2!E24</f>
         <v>0</v>
       </c>
       <c r="K31" s="3">
         <v>154</v>
       </c>
       <c r="L31" s="1">
+        <f>Sheet2!F24</f>
         <v>0</v>
       </c>
       <c r="M31" s="3">
         <v>180</v>
       </c>
       <c r="N31" s="2">
+        <f>Sheet2!G24</f>
         <v>0</v>
       </c>
     </row>
@@ -2042,195 +2222,202 @@
         <v>25</v>
       </c>
       <c r="B32" s="1">
+        <f>Sheet2!A25</f>
         <v>0</v>
       </c>
       <c r="C32" s="3">
         <v>51</v>
       </c>
       <c r="D32" s="1">
+        <f>Sheet2!B25</f>
         <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>77</v>
       </c>
       <c r="F32" s="1">
+        <f>Sheet2!C25</f>
         <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>103</v>
       </c>
       <c r="H32" s="1">
+        <f>Sheet2!D25</f>
         <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>129</v>
       </c>
       <c r="J32" s="1">
+        <f>Sheet2!E25</f>
         <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>155</v>
       </c>
       <c r="L32" s="1">
+        <f>Sheet2!F25</f>
         <v>0</v>
       </c>
       <c r="M32" s="3"/>
-      <c r="N32" s="10"/>
+      <c r="N32" s="9"/>
     </row>
     <row r="33" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="4">
         <v>26</v>
       </c>
-      <c r="B33" s="5">
+      <c r="B33" s="1">
+        <f>Sheet2!A26</f>
         <v>0</v>
       </c>
       <c r="C33" s="4">
         <v>52</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="1">
+        <f>Sheet2!B26</f>
         <v>0</v>
       </c>
       <c r="E33" s="4">
         <v>78</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="1">
+        <f>Sheet2!C26</f>
         <v>0</v>
       </c>
       <c r="G33" s="4">
         <v>104</v>
       </c>
-      <c r="H33" s="5">
+      <c r="H33" s="1">
+        <f>Sheet2!D26</f>
         <v>0</v>
       </c>
       <c r="I33" s="4">
         <v>130</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="1">
+        <f>Sheet2!E26</f>
         <v>0</v>
       </c>
       <c r="K33" s="4">
         <v>156</v>
       </c>
-      <c r="L33" s="5">
-        <v>0</v>
-      </c>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
+      <c r="L33" s="1">
+        <f>Sheet2!F26</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="11" t="s">
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="6"/>
+      <c r="M34" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="N34" s="12"/>
+      <c r="N34" s="23"/>
     </row>
     <row r="35" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30" t="s">
+      <c r="A35" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="31"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="31"/>
-      <c r="K35" s="31"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="14"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="39"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="25"/>
     </row>
     <row r="36" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="30"/>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="31"/>
-      <c r="K36" s="31"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="16"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="39"/>
+      <c r="M36" s="26"/>
+      <c r="N36" s="27"/>
     </row>
     <row r="37" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="31"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-      <c r="J37" s="31"/>
-      <c r="K37" s="31"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="17">
+      <c r="A37" s="38"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="39"/>
+      <c r="H37" s="39"/>
+      <c r="I37" s="39"/>
+      <c r="J37" s="39"/>
+      <c r="K37" s="39"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="28">
         <f>SUM(B8:B33,D8:D33,F8:F33,H8:H33,J8:J33,L8:L33,N8:N31)</f>
         <v>0</v>
       </c>
-      <c r="N37" s="18"/>
+      <c r="N37" s="29"/>
     </row>
     <row r="38" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32" t="s">
+      <c r="A38" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="33"/>
-      <c r="J38" s="33"/>
-      <c r="K38" s="33"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="20"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="42"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="31"/>
     </row>
     <row r="39" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="35"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
-      <c r="D39" s="36"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="36"/>
-      <c r="I39" s="36"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="36"/>
-      <c r="L39" s="37"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="22"/>
+      <c r="A39" s="43"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="44"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="44"/>
+      <c r="K39" s="44"/>
+      <c r="L39" s="45"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A3:N3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="H4:N4"/>
     <mergeCell ref="M34:N36"/>
     <mergeCell ref="M37:N39"/>
     <mergeCell ref="A5:G5"/>
@@ -2245,6 +2432,11 @@
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="A35:L37"/>
     <mergeCell ref="A38:L39"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="H4:N4"/>
   </mergeCells>
   <conditionalFormatting sqref="M37">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThanOrEqual">
@@ -2257,19 +2449,256 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="46"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="46"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="46"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="46"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="46"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
